--- a/document/znd/王恒月报201801.xlsx
+++ b/document/znd/王恒月报201801.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="A1:XFD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
